--- a/src/SimpleChaos.xlsx
+++ b/src/SimpleChaos.xlsx
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B1" cm="1">
-        <f t="array" ref="B1">[1]!syClock(,50)</f>
+        <f t="array" ref="B1">syClock(,50)</f>
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" ref="B3">[1]!syState("Rate",0,0.2,B1)</f>
+        <f t="array" ref="B3">syState("Rate",0,0.2,B1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1433,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" ref="B4">[1]!syLoop("Rate",B2*B3-B2*B3^2-B3)</f>
+        <f t="array" ref="B4">syLoop("Rate",B2*B3-B2*B3^2-B3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6">[1]!syOutcome(B3,B1,3)</f>
+        <f t="array" ref="B6">syOutcome(B3,B1,3)</f>
         <v>{{B3}}</v>
       </c>
     </row>
